--- a/uploads/新增任务配置模板.xlsx
+++ b/uploads/新增任务配置模板.xlsx
@@ -440,9 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -483,7 +481,9 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
       <c r="B2" s="1">
         <v>3</v>
       </c>
@@ -508,7 +508,9 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
       <c r="B3" s="1">
         <v>3</v>
       </c>
@@ -533,7 +535,9 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -558,7 +562,9 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -583,7 +589,9 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -608,7 +616,9 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>

--- a/uploads/新增任务配置模板.xlsx
+++ b/uploads/新增任务配置模板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>任务名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,10 @@
   </si>
   <si>
     <t>依赖任务序号(本次新建任务)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -451,7 +455,7 @@
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -479,13 +483,16 @@
       <c r="I1" t="s">
         <v>23</v>
       </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -507,12 +514,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -534,12 +541,12 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -561,12 +568,12 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -588,12 +595,12 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -615,12 +622,12 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -641,6 +648,9 @@
         <v>19</v>
       </c>
       <c r="I7" s="1"/>
+      <c r="J7">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/uploads/新增任务配置模板.xlsx
+++ b/uploads/新增任务配置模板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>任务名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +114,10 @@
   </si>
   <si>
     <t>任务参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,9 +446,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -455,7 +461,7 @@
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -486,8 +492,11 @@
       <c r="J1" t="s">
         <v>25</v>
       </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -513,8 +522,11 @@
       <c r="I2" s="1">
         <v>6</v>
       </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -540,8 +552,11 @@
         <v>1</v>
       </c>
       <c r="I3" s="1"/>
+      <c r="K3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -567,8 +582,11 @@
         <v>1</v>
       </c>
       <c r="I4" s="1"/>
+      <c r="K4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -594,8 +612,11 @@
         <v>2</v>
       </c>
       <c r="I5" s="1"/>
+      <c r="K5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -621,8 +642,11 @@
         <v>18</v>
       </c>
       <c r="I6" s="1"/>
+      <c r="K6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -650,6 +674,9 @@
       <c r="I7" s="1"/>
       <c r="J7">
         <v>3</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
